--- a/medicine/Enfance/Terri_Farley/Terri_Farley.xlsx
+++ b/medicine/Enfance/Terri_Farley/Terri_Farley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terri Farley, née le 10 mai 1950 à Los Angeles, est une romancière américaine, auteur de près d'une trentaine de romans de littérature d'enfance et de jeunesse. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle détient un baccalauréat d'anglais à l'université d'État de San José et de journalisme à l'université du Nevada à Reno. 
 Passionnée de chevaux, elle quitte Los Angeles, où elle enseigne un temps, pour le Nevada. Elle a travaillé successivement comme serveuse, journaliste et enseignante avant de se lancer dans l'écriture à temps plein. Elle dirige désormais un ranch et écrit des romans et des articles sur les habitants et les animaux de l'Ouest américain, plus particulièrement sur les chevaux sauvages.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Phantom Stallion (Le Cheval fantôme)
-2002 : The Wild One, traduit sous le titre L'Étalon sauvage (2004)
+          <t>Série The Phantom Stallion (Le Cheval fantôme)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2002 : The Wild One, traduit sous le titre L'Étalon sauvage (2004)
 2002 : Mustang Moon, traduit sous le titre  Un mustang dans la nuit (2004)
 Dark Sunshine, traduit sous le titre  Une jument dans les flammes
 The Renegade, traduit sous le titre  Le Cheval rebelle
@@ -570,9 +589,43 @@
 Dawn Runner
 Wild Honey
 Gypsy Gold
-Run Away Home
-Série Phantom Stallion: Wild Horse Island
-Terri Farley a récemment annoncé qu'elle avait signé un contrat portant sur seize romans, et a donné plusieurs titres pour des livres à venir :
+Run Away Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terri_Farley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terri_Farley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Phantom Stallion: Wild Horse Island</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Terri Farley a récemment annoncé qu'elle avait signé un contrat portant sur seize romans, et a donné plusieurs titres pour des livres à venir :
 The Horse Charmer (22 mai 2007)
 The Shining Stallion (21 août 2007)
 Rain Forest Rose (novembre 2007)
@@ -583,15 +636,117 @@
 Water Lilly (septembre 2008)
 Snowfire (20 octobre 2008)
 Faraway Filly (23 décembre 2008)
-Galloping Gold (mars 2009) dernier livre de la série
-Série Magical Love
-Sea Spell
-Blue Rain
-Série Haunting Hearts
-Shadows in the Flame
-Snow in Summer
-Autres
-Seven Tears into the Sea
+Galloping Gold (mars 2009) dernier livre de la série</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terri_Farley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terri_Farley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Magical Love</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sea Spell
+Blue Rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terri_Farley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terri_Farley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Haunting Hearts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Shadows in the Flame
+Snow in Summer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terri_Farley</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terri_Farley</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Seven Tears into the Sea
 Tumbleweed Heart
 Star of Wonder également par Jo Beverley, Alice Alfonsi, et Kate Freiman</t>
         </is>
